--- a/files/stock.xlsx
+++ b/files/stock.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,6 +451,39 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>股票代號:6208
+股票名稱:None
+購買時間:2024-09-22
+購買張數(1000股):1.0
+購買金額(單價):100.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>股票代號:2330
+股票名稱:台積電
+購買時間:2024-09-22
+購買張數(1000股):3.0
+購買金額(單價):970.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>股票代號:2330
+股票名稱:台積電
+購買時間:2024-09-22
+購買張數(1000股):30.0
+購買金額(單價):950.0</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
